--- a/Fase 2/Tabela das Necessidades.xlsx
+++ b/Fase 2/Tabela das Necessidades.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Usabilidade-e-Web-Design\Fase 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA976819-6939-4CCA-BCED-9B79C99042F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B05B05-8ECB-4CD5-9711-F26D1330C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Necessidades</t>
-  </si>
-  <si>
-    <t>Informações Nutricionais</t>
-  </si>
-  <si>
-    <t>Informações nutricionais precisas e personalizadas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>2</t>
   </si>
@@ -68,13 +56,52 @@
   </si>
   <si>
     <t>Nível de Importância (1-Critico, 2- Muito Importante, 3- Importante , 4- Significante, 5 - Neutro)</t>
+  </si>
+  <si>
+    <t>Necessidades principais</t>
+  </si>
+  <si>
+    <t>Necessidades Secundárias</t>
+  </si>
+  <si>
+    <t>Obtenção de Informações Alimentares</t>
+  </si>
+  <si>
+    <t>Saber que valor nutricional de um alimento</t>
+  </si>
+  <si>
+    <t>Saber se tem um alto teor calorico</t>
+  </si>
+  <si>
+    <t>Obter Informações sobre validade do produto</t>
+  </si>
+  <si>
+    <t>Consumo correto dos alimentos</t>
+  </si>
+  <si>
+    <t>Mostrar o valor saudavel de um alimento</t>
+  </si>
+  <si>
+    <t>Obter Informações  e lembretes sobre validade do produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de um plano nutricional </t>
+  </si>
+  <si>
+    <t>Acessibilidade no consumo alimentar</t>
+  </si>
+  <si>
+    <t>Saber o seu plano alimentar personalizado</t>
+  </si>
+  <si>
+    <t>Obtenção de peso ideal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,16 +109,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,11 +167,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -126,14 +275,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -143,12 +428,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -166,12 +447,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -186,9 +463,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -228,6 +503,77 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -246,13 +592,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{687CC179-45BB-43C3-B6FC-3E53DE3F90F0}" name="Tabela1" displayName="Tabela1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D5" xr:uid="{687CC179-45BB-43C3-B6FC-3E53DE3F90F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{687CC179-45BB-43C3-B6FC-3E53DE3F90F0}" name="Tabela1" displayName="Tabela1" ref="B2:E8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="B2:E8" xr:uid="{687CC179-45BB-43C3-B6FC-3E53DE3F90F0}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AF11A860-E2E0-4248-B2AB-C289057F3A7B}" name="Categoria" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6512D881-C8CF-4061-B68D-135DA5DB7213}" name="Necessidades" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{097927C8-2C8C-4C57-843C-A004E1CDC610}" name="#" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A53DB195-0C1F-4A86-A204-CBA44CC08A8F}" name="Nível de Importância (1-Critico, 2- Muito Importante, 3- Importante , 4- Significante, 5 - Neutro)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AF11A860-E2E0-4248-B2AB-C289057F3A7B}" name="Necessidades principais" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6512D881-C8CF-4061-B68D-135DA5DB7213}" name="Necessidades Secundárias" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{097927C8-2C8C-4C57-843C-A004E1CDC610}" name="#" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{A53DB195-0C1F-4A86-A204-CBA44CC08A8F}" name="Nível de Importância (1-Critico, 2- Muito Importante, 3- Importante , 4- Significante, 5 - Neutro)" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55DCCDDD-5970-40CF-8A39-F48F30898219}" name="Tabela13" displayName="Tabela13" ref="B18:E24" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B18:E24" xr:uid="{55DCCDDD-5970-40CF-8A39-F48F30898219}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{093D7908-DC20-4A5A-8C44-413CDC377BB8}" name="Necessidades principais" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{19595BC1-8EF8-4778-89D8-C5DA5936CE68}" name="Necessidades Secundárias" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{86FF209E-E4FD-4722-A893-617695B7C1D7}" name="#" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{02F717FC-E3F5-4F3A-B0E5-4D1EE7218533}" name="Nível de Importância (1-Critico, 2- Muito Importante, 3- Importante , 4- Significante, 5 - Neutro)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,97 +939,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="26" spans="2:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E28" s="15">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14">
+        <v>5</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="14">
+        <v>6</v>
+      </c>
+      <c r="E32" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="14">
+        <v>7</v>
+      </c>
+      <c r="E33" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B33"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>